--- a/Source/Excel/avatar.xlsx
+++ b/Source/Excel/avatar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CADC3E-09EE-4A38-99B5-DFC1BF33A0AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECF5FEE-773F-4075-8AEB-E0830D6A1E75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,11 +150,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +551,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -594,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -631,16 +631,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -651,16 +651,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -671,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -711,16 +711,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -751,16 +751,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -771,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -811,16 +811,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -831,16 +831,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -851,16 +851,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
